--- a/VersionRecords/Version 5.1.1/定时器/新增定时器 (极光组).xlsx
+++ b/VersionRecords/Version 5.1.1/定时器/新增定时器 (极光组).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="14070" tabRatio="185"/>
@@ -13,7 +13,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$2</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -130,17 +130,18 @@
   </si>
   <si>
     <r>
-      <t>每日08</t>
+      <t>每日0</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="major"/>
       </rPr>
-      <t>:00:00执行</t>
+      <t>9:00:00执行</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -148,8 +149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +163,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -169,6 +171,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -176,12 +179,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -360,14 +365,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -405,6 +410,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -424,7 +497,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -673,14 +746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="3" customWidth="1"/>
@@ -701,7 +774,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -757,8 +830,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -801,13 +874,13 @@
       <c r="O2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="23" t="s">
         <v>32</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="22">
         <v>38353</v>
       </c>
     </row>
